--- a/data/day_ahead/test_out.xlsx
+++ b/data/day_ahead/test_out.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\與資工合作\1081007- 風力發電單值預測\day_ahead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wind_forecasting\my_day_ahead\pif_basic_new_ANN_one\wind_data_in_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12495" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -361,16 +361,16 @@
         <v>2017</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>2</v>
       </c>
       <c r="E1">
-        <v>0.14633709475192549</v>
+        <v>0.50467928143203145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -378,16 +378,16 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0.20437041017374172</v>
+        <v>0.52113504740687966</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -395,16 +395,16 @@
         <v>2017</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0.12394769837005194</v>
+        <v>0.53759081130302122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -412,16 +412,16 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0.1875335840945728</v>
+        <v>0.55404657100594501</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -429,16 +429,16 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>0.26562779867454772</v>
+        <v>0.77233367519076945</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,16 +446,16 @@
         <v>2017</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0.10084184130395844</v>
+        <v>0.53525882015845339</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -463,16 +463,16 @@
         <v>2017</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>5.194339960594662E-2</v>
+        <v>0.82479225939452272</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -480,16 +480,16 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>3.474834318466774E-2</v>
+        <v>0.37010061600241223</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,16 +497,16 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2.1135590184488625E-2</v>
+        <v>0.3877620818506099</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,16 +514,16 @@
         <v>2017</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
-        <v>3.582303421099767E-4</v>
+        <v>0.15027034464544103</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,16 +531,16 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>1.6120365394948952E-3</v>
+        <v>0.15362554518340119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,16 +548,16 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>1.0209564750134336E-2</v>
+        <v>0.33439302842679208</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,16 +565,16 @@
         <v>2017</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>14</v>
       </c>
       <c r="E13">
-        <v>2.8300197026688161E-2</v>
+        <v>0.40915535632964778</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -582,16 +582,16 @@
         <v>2017</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>5.3734551316496511E-4</v>
+        <v>0.21282966930804806</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -599,16 +599,16 @@
         <v>2017</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.13699647207799634</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,16 +616,16 @@
         <v>2017</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3.582303421099767E-4</v>
+        <v>0.20610925700098731</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,16 +633,16 @@
         <v>2017</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1.7911517105498835E-4</v>
+        <v>0.11188408217682368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,16 +650,16 @@
         <v>2017</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3.0561325920962546E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,16 +667,16 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4.840119928875973E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,16 +684,16 @@
         <v>2017</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20">
-        <v>5.0152247895396736E-3</v>
+        <v>7.8572868161333881E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,16 +701,16 @@
         <v>2017</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21">
-        <v>2.4897008776643383E-2</v>
+        <v>6.5652364761528983E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,16 +718,16 @@
         <v>2017</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22">
-        <v>2.6867275658248254E-2</v>
+        <v>9.7292807289466061E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,16 +735,16 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23">
-        <v>3.582303421099767E-4</v>
+        <v>6.5792455603175875E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,16 +752,16 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1.0746910263299302E-3</v>
+        <v>1.5892777799219691E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,16 +769,16 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>3.4031882500447789E-3</v>
+        <v>2.3919106931713952E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -786,16 +786,16 @@
         <v>2017</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>1.7911517105498835E-4</v>
+        <v>5.4737294485419008E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,16 +803,16 @@
         <v>2017</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>3.582303421099767E-4</v>
+        <v>5.2469581844099755E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,16 +820,16 @@
         <v>2017</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>11</v>
       </c>
       <c r="E28">
-        <v>1.7911517105498836E-3</v>
+        <v>5.2131690926477828E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,16 +837,16 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>14</v>
       </c>
       <c r="E29">
-        <v>5.3734551316496511E-4</v>
+        <v>4.66081047361303E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,16 +854,16 @@
         <v>2017</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>17</v>
       </c>
       <c r="E30">
-        <v>3.582303421099767E-4</v>
+        <v>9.5908989733895899E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,16 +871,16 @@
         <v>2017</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>20</v>
       </c>
       <c r="E31">
-        <v>2.1493820526598604E-3</v>
+        <v>2.7007901029399942E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,16 +888,16 @@
         <v>2017</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>23</v>
       </c>
       <c r="E32">
-        <v>1.7911517105498835E-4</v>
+        <v>5.5277506156473566E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,16 +905,16 @@
         <v>2017</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33">
-        <v>8.9557585527494181E-4</v>
+        <v>3.3173066640242404E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,16 +922,16 @@
         <v>2017</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>3.582303421099767E-4</v>
+        <v>5.1648990466859482E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,16 +939,16 @@
         <v>2017</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>7.8989790435249868E-2</v>
+        <v>5.4560960774387409E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,16 +956,16 @@
         <v>2017</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36">
-        <v>9.9767150277628516E-2</v>
+        <v>5.1845848402816301E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,16 +973,16 @@
         <v>2017</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>14</v>
       </c>
       <c r="E37">
-        <v>0.11785778255418233</v>
+        <v>0.2299949407551953</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,16 +990,16 @@
         <v>2017</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2.6329930145083287E-2</v>
+        <v>0.68354034567996791</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,16 +1007,16 @@
         <v>2017</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>20</v>
       </c>
       <c r="E39">
-        <v>1.7195056421278884E-2</v>
+        <v>5.5972282648147721E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,16 +1024,16 @@
         <v>2017</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>23</v>
       </c>
       <c r="E40">
-        <v>3.2240730789897904E-3</v>
+        <v>5.6584227167465681E-3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,16 +1041,16 @@
         <v>2017</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>1.0746910263299301E-2</v>
+        <v>5.4845463421763219E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,16 +1058,16 @@
         <v>2017</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42">
-        <v>1.1821601289629231E-2</v>
+        <v>5.1977680687036367E-3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,16 +1075,16 @@
         <v>2017</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43">
-        <v>2.3284972237148486E-2</v>
+        <v>5.4463262905788496E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,16 +1092,16 @@
         <v>2017</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>11</v>
       </c>
       <c r="E44">
-        <v>4.8540211355901842E-2</v>
+        <v>6.6069490769922953E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +1109,16 @@
         <v>2017</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>14</v>
       </c>
       <c r="E45">
-        <v>6.9854916711445461E-2</v>
+        <v>0.12713256169628567</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,16 +1126,16 @@
         <v>2017</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>9.8692459251298589E-2</v>
+        <v>0.10476293072845654</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,16 +1143,16 @@
         <v>2017</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>20</v>
       </c>
       <c r="E47">
-        <v>3.8688876947877482E-2</v>
+        <v>0.10133713386612782</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,16 +1160,16 @@
         <v>2017</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>23</v>
       </c>
       <c r="E48">
-        <v>2.6509045316138277E-2</v>
+        <v>0.18502207878702079</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,16 +1177,16 @@
         <v>2017</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>9.4931040659143838E-3</v>
+        <v>1.1585785100794766E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,16 +1194,16 @@
         <v>2017</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50">
-        <v>7.0929607737775388E-2</v>
+        <v>5.4269672631898792E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,16 +1211,16 @@
         <v>2017</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51">
-        <v>0.12842557764642665</v>
+        <v>5.3307392282786904E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,16 +1228,16 @@
         <v>2017</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>11</v>
       </c>
       <c r="E52">
-        <v>0.14024717893605587</v>
+        <v>8.5070824829894712E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,16 +1245,16 @@
         <v>2017</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>14</v>
       </c>
       <c r="E53">
-        <v>0.54504746552032957</v>
+        <v>2.065844542468042E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,16 +1262,16 @@
         <v>2017</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>0.53412144008597529</v>
+        <v>5.2766315729884028E-3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,16 +1279,16 @@
         <v>2017</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>20</v>
       </c>
       <c r="E55">
-        <v>0.14848647680458535</v>
+        <v>5.5045179770368815E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,16 +1296,16 @@
         <v>2017</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>23</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5.0059078116115778E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,16 +1313,16 @@
         <v>2017</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>3.3852767329392797E-2</v>
+        <v>5.6613119075777487E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,16 +1330,16 @@
         <v>2017</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58">
-        <v>2.6867275658248252E-3</v>
+        <v>7.1804787558074077E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,16 +1347,16 @@
         <v>2017</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>5.3734551316496511E-4</v>
+        <v>9.0727843731265613E-3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,16 +1364,16 @@
         <v>2017</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>11</v>
       </c>
       <c r="E60">
-        <v>0.10478237506716818</v>
+        <v>0.12042942844263597</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,16 +1381,16 @@
         <v>2017</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>14</v>
       </c>
       <c r="E61">
-        <v>0.37847035643919041</v>
+        <v>0.16885360727353668</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,16 +1398,16 @@
         <v>2017</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>17</v>
       </c>
       <c r="E62">
-        <v>0.27924055167472683</v>
+        <v>6.4373434798531581E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,16 +1415,16 @@
         <v>2017</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>20</v>
       </c>
       <c r="E63">
-        <v>0.31739208310943939</v>
+        <v>5.5198104279449347E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,16 +1432,16 @@
         <v>2017</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>23</v>
       </c>
       <c r="E64">
-        <v>9.4035464803868887E-2</v>
+        <v>8.3247501078135833E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,16 +1449,16 @@
         <v>2017</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65">
-        <v>1.0209564750134336E-2</v>
+        <v>0.15712465492866673</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>2017</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66">
-        <v>0.10137918681712341</v>
+        <v>0.88995981382813649</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,16 +1483,16 @@
         <v>2017</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67">
-        <v>1.3970983342289092E-2</v>
+        <v>0.99394145546807133</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,16 +1500,16 @@
         <v>2017</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68">
-        <v>0.15188966505463014</v>
+        <v>0.94143284699558683</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,16 +1517,16 @@
         <v>2017</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>14</v>
       </c>
       <c r="E69">
-        <v>0.47447608812466419</v>
+        <v>0.9868003260327427</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,16 +1534,16 @@
         <v>2017</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>17</v>
       </c>
       <c r="E70">
-        <v>0.77968833960236428</v>
+        <v>0.99116693506475928</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,16 +1551,16 @@
         <v>2017</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>20</v>
       </c>
       <c r="E71">
-        <v>0.88411248432742251</v>
+        <v>0.90852003754295141</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>2017</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>23</v>
       </c>
       <c r="E72">
-        <v>0.82751209027404626</v>
+        <v>0.82895235488655561</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
-        <v>0.91097975998567082</v>
+        <v>0.69279083259400354</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,13 +1605,13 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74">
-        <v>0.70517642844348916</v>
+        <v>0.10463283174209241</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,13 +1622,13 @@
         <v>9</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>8</v>
       </c>
       <c r="E75">
-        <v>0.75729894322049074</v>
+        <v>0.16149234469171386</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>9</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>11</v>
       </c>
       <c r="E76">
-        <v>0.73061078273329749</v>
+        <v>7.8357389881914277E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,13 +1656,13 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <v>14</v>
       </c>
       <c r="E77">
-        <v>0.70840050152247891</v>
+        <v>4.3029416910207218E-3</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,13 +1673,13 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>17</v>
       </c>
       <c r="E78">
-        <v>0.87927637470893782</v>
+        <v>4.6630082421983497E-3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,13 +1690,13 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>20</v>
       </c>
       <c r="E79">
-        <v>0.8828586781300376</v>
+        <v>5.1691172922781591E-3</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,13 +1707,13 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D80">
         <v>23</v>
       </c>
       <c r="E80">
-        <v>0.25935876768762312</v>
+        <v>4.6095165404414834E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,13 +1724,13 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>0.44348916353215118</v>
+        <v>5.5109936718073516E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,13 +1741,13 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82">
-        <v>0.39835214042629413</v>
+        <v>6.8390790277987445E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,13 +1758,13 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
       <c r="E83">
-        <v>7.8094214579974924E-2</v>
+        <v>3.4123572887931802E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,13 +1775,13 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D84">
         <v>11</v>
       </c>
       <c r="E84">
-        <v>0.17051764284434892</v>
+        <v>5.4208054784423264E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,13 +1792,13 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>14</v>
       </c>
       <c r="E85">
-        <v>1.755328676338886E-2</v>
+        <v>5.4020180709548173E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,13 +1809,13 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>17</v>
       </c>
       <c r="E86">
-        <v>2.9195772881963102E-2</v>
+        <v>8.6326472469791929E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,13 +1826,13 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87">
-        <v>0.107648217804048</v>
+        <v>1.611452142060095E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,13 +1843,13 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>23</v>
       </c>
       <c r="E88">
-        <v>2.4359663263478416E-2</v>
+        <v>8.3752260231914396E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,13 +1860,13 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89">
-        <v>1.8986208131828768E-2</v>
+        <v>1.7141857486011661E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,13 +1877,13 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>5</v>
       </c>
       <c r="E90">
-        <v>9.4931040659143838E-3</v>
+        <v>1.5868176325776626E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,13 +1894,13 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D91">
         <v>8</v>
       </c>
       <c r="E91">
-        <v>9.1348737238044056E-2</v>
+        <v>9.0554593306651707E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,13 +1911,13 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>11</v>
       </c>
       <c r="E92">
-        <v>8.5617051764284441E-2</v>
+        <v>0.31315122463760608</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,13 +1928,13 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>14</v>
       </c>
       <c r="E93">
-        <v>8.2392978685294646E-2</v>
+        <v>0.24941204286779606</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1945,13 +1945,13 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>17</v>
       </c>
       <c r="E94">
-        <v>7.3616335303600219E-2</v>
+        <v>0.51219227934955458</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>20</v>
       </c>
       <c r="E95">
-        <v>0.21941608454236075</v>
+        <v>2.2481648147147617E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,13 +1979,13 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>23</v>
       </c>
       <c r="E96">
-        <v>5.9108006448146157E-2</v>
+        <v>7.6346946422593848E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,13 +1996,13 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>1.8090632276553824E-2</v>
+        <v>4.257333232527194E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,13 +2013,13 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98">
-        <v>1.7911517105498835E-4</v>
+        <v>8.3298098107904978E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,13 +2030,13 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D99">
         <v>8</v>
       </c>
       <c r="E99">
-        <v>7.7019523553644997E-3</v>
+        <v>0.10704969049769206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D100">
         <v>11</v>
       </c>
       <c r="E100">
-        <v>3.9226222461042452E-2</v>
+        <v>0.6669804377022609</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,13 +2064,13 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>14</v>
       </c>
       <c r="E101">
-        <v>5.194339960594662E-3</v>
+        <v>0.79234552674283565</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,13 +2081,13 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D102">
         <v>17</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.69080560807145841</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,13 +2098,13 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>20</v>
       </c>
       <c r="E103">
-        <v>1.7911517105498835E-4</v>
+        <v>2.4724654036001169E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2115,13 +2115,13 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>23</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>6.6428590973887751E-3</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2132,13 +2132,13 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
       <c r="E105">
-        <v>2.5076123947698368E-3</v>
+        <v>5.3136229791805618E-3</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2149,13 +2149,13 @@
         <v>9</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>5</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>5.1175825759304776E-3</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,13 +2166,13 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>8</v>
       </c>
       <c r="E107">
-        <v>3.5823034210997673E-3</v>
+        <v>5.1956210574001776E-3</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2183,13 +2183,13 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>11</v>
       </c>
       <c r="E108">
-        <v>1.7911517105498836E-3</v>
+        <v>1.2866724273892047E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,13 +2200,13 @@
         <v>9</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D109">
         <v>14</v>
       </c>
       <c r="E109">
-        <v>2.8121081855633171E-2</v>
+        <v>8.9658458106815827E-3</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,13 +2217,13 @@
         <v>9</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>17</v>
       </c>
       <c r="E110">
-        <v>1.1821601289629231E-2</v>
+        <v>5.4783990008297765E-3</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,13 +2234,13 @@
         <v>9</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D111">
         <v>20</v>
       </c>
       <c r="E111">
-        <v>2.1852050868708579E-2</v>
+        <v>5.2610318716973109E-3</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,13 +2251,13 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>23</v>
       </c>
       <c r="E112">
-        <v>1.9881783987103708E-2</v>
+        <v>5.3938510854394861E-3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,13 +2268,13 @@
         <v>9</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113">
-        <v>4.4778792763747091E-2</v>
+        <v>5.2606296552646283E-3</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2285,13 +2285,13 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114">
-        <v>0.12179831631739209</v>
+        <v>5.4742639613011576E-3</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,13 +2302,13 @@
         <v>9</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>8</v>
       </c>
       <c r="E115">
-        <v>5.8391545763926203E-2</v>
+        <v>5.2359296462556795E-3</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2319,13 +2319,13 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D116">
         <v>11</v>
       </c>
       <c r="E116">
-        <v>2.1314705355543615E-2</v>
+        <v>0.14802613708513707</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>14</v>
       </c>
       <c r="E117">
-        <v>1.4508328855454057E-2</v>
+        <v>3.6671887012053025E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,13 +2353,13 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D118">
         <v>17</v>
       </c>
       <c r="E118">
-        <v>2.0777359842378648E-2</v>
+        <v>5.3855777991877064E-3</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2370,13 +2370,13 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D119">
         <v>20</v>
       </c>
       <c r="E119">
-        <v>7.7019523553644997E-3</v>
+        <v>5.3088793934289629E-3</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,13 +2387,13 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D120">
         <v>23</v>
       </c>
       <c r="E120">
-        <v>3.582303421099767E-4</v>
+        <v>5.3188269366863392E-3</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,13 +2404,13 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2.3078347136963277E-3</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2421,13 +2421,13 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <v>5</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>5.1763975658173081E-3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,13 +2438,13 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D123">
         <v>8</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>5.3051010134621077E-3</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,13 +2455,13 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D124">
         <v>11</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1.710700145357549E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2472,13 +2472,13 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D125">
         <v>14</v>
       </c>
       <c r="E125">
-        <v>1.3254522658069139E-2</v>
+        <v>7.9106388509528457E-3</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -2489,13 +2489,13 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D126">
         <v>17</v>
       </c>
       <c r="E126">
-        <v>4.4241447250582128E-2</v>
+        <v>5.0704358686028276E-3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,13 +2506,13 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D127">
         <v>20</v>
       </c>
       <c r="E127">
-        <v>3.582303421099767E-4</v>
+        <v>1.1751472177767758E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,13 +2523,13 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D128">
         <v>23</v>
       </c>
       <c r="E128">
-        <v>4.4778792763747093E-3</v>
+        <v>5.6065079442626483E-3</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,13 +2540,13 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
       <c r="E129">
-        <v>3.582303421099767E-4</v>
+        <v>5.4074392761919695E-3</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,13 +2557,13 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D130">
         <v>5</v>
       </c>
       <c r="E130">
-        <v>5.3734551316496511E-4</v>
+        <v>4.9721706061876033E-3</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,13 +2574,13 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D131">
         <v>8</v>
       </c>
       <c r="E131">
-        <v>1.7911517105498835E-4</v>
+        <v>5.4143749688154025E-3</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,13 +2591,13 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D132">
         <v>11</v>
       </c>
       <c r="E132">
-        <v>8.4184130395844534E-3</v>
+        <v>5.8982308155170582E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D133">
         <v>14</v>
       </c>
       <c r="E133">
-        <v>3.582303421099767E-4</v>
+        <v>0.11024336358771133</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,13 +2625,13 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D134">
         <v>17</v>
       </c>
       <c r="E134">
-        <v>1.7911517105498835E-4</v>
+        <v>0.31945227670033088</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,13 +2642,13 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D135">
         <v>20</v>
       </c>
       <c r="E135">
-        <v>3.582303421099767E-4</v>
+        <v>0.26158595886243369</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,13 +2659,13 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D136">
         <v>23</v>
       </c>
       <c r="E136">
-        <v>1.7911517105498835E-4</v>
+        <v>0.11355651733809206</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,13 +2676,13 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0.52695683324377574</v>
+        <v>3.1883199697191875E-2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,13 +2693,13 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="E138">
-        <v>0.51567257746731143</v>
+        <v>5.0295777196379746E-3</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,13 +2710,13 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D139">
         <v>8</v>
       </c>
       <c r="E139">
-        <v>0.86673831273508861</v>
+        <v>3.2697985612232562E-3</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -2727,13 +2727,13 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D140">
         <v>11</v>
       </c>
       <c r="E140">
-        <v>0.83682607916890561</v>
+        <v>2.3395803204070652E-2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,13 +2744,13 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D141">
         <v>14</v>
       </c>
       <c r="E141">
-        <v>0.92280136127529999</v>
+        <v>2.7389558155402611E-3</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2761,13 +2761,13 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D142">
         <v>17</v>
       </c>
       <c r="E142">
-        <v>0.90954683861723085</v>
+        <v>0.18651095375178678</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,13 +2778,13 @@
         <v>9</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D143">
         <v>20</v>
       </c>
       <c r="E143">
-        <v>0.92011463370947522</v>
+        <v>5.485532476263235E-3</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,13 +2795,13 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D144">
         <v>23</v>
       </c>
       <c r="E144">
-        <v>0.90990506895934087</v>
+        <v>5.6580101113842063E-3</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,13 +2812,13 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0.77664338169442948</v>
+        <v>5.0222041340889315E-3</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -2829,13 +2829,13 @@
         <v>9</v>
       </c>
       <c r="C146">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
       <c r="E146">
-        <v>0.76285151352319547</v>
+        <v>3.8714710195513938E-2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -2846,13 +2846,13 @@
         <v>9</v>
       </c>
       <c r="C147">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D147">
         <v>8</v>
       </c>
       <c r="E147">
-        <v>0.59931936234999106</v>
+        <v>3.7299254984401023E-2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,13 +2863,13 @@
         <v>9</v>
       </c>
       <c r="C148">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D148">
         <v>11</v>
       </c>
       <c r="E148">
-        <v>0.43417517463729177</v>
+        <v>0.12846130619193799</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -2880,13 +2880,13 @@
         <v>9</v>
       </c>
       <c r="C149">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D149">
         <v>14</v>
       </c>
       <c r="E149">
-        <v>0.50564212788823215</v>
+        <v>1.3197078851842233E-2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -2897,13 +2897,13 @@
         <v>9</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D150">
         <v>17</v>
       </c>
       <c r="E150">
-        <v>0.25326885187175352</v>
+        <v>4.5709154519203848E-3</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,13 +2914,13 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D151">
         <v>20</v>
       </c>
       <c r="E151">
-        <v>6.9496686369335481E-2</v>
+        <v>5.2467376279597359E-3</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,13 +2931,13 @@
         <v>9</v>
       </c>
       <c r="C152">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D152">
         <v>23</v>
       </c>
       <c r="E152">
-        <v>5.3734551316496511E-4</v>
+        <v>5.2165697717747386E-3</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -2948,13 +2948,13 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153">
-        <v>6.4481461579795809E-3</v>
+        <v>3.8898812246415171E-2</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,13 +2965,13 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>6.6300960436804807E-2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -2982,13 +2982,13 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D155">
         <v>8</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>3.9244559310408225E-2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,13 +2999,13 @@
         <v>9</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D156">
         <v>11</v>
       </c>
       <c r="E156">
-        <v>1.0746910263299302E-3</v>
+        <v>0.11729836935839048</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,13 +3016,13 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D157">
         <v>14</v>
       </c>
       <c r="E157">
-        <v>5.3734551316496511E-4</v>
+        <v>0.10685038079223334</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,13 +3033,13 @@
         <v>9</v>
       </c>
       <c r="C158">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D158">
         <v>17</v>
       </c>
       <c r="E158">
-        <v>4.4778792763747093E-3</v>
+        <v>7.7340969361237299E-2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,13 +3050,13 @@
         <v>9</v>
       </c>
       <c r="C159">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D159">
         <v>20</v>
       </c>
       <c r="E159">
-        <v>3.582303421099767E-4</v>
+        <v>1.8604705167194313E-2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3067,13 +3067,13 @@
         <v>9</v>
       </c>
       <c r="C160">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D160">
         <v>23</v>
       </c>
       <c r="E160">
-        <v>1.7911517105498835E-4</v>
+        <v>3.2642146278344567E-2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,13 +3084,13 @@
         <v>9</v>
       </c>
       <c r="C161">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>9.4782736506998422E-2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3101,13 +3101,13 @@
         <v>9</v>
       </c>
       <c r="C162">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D162">
         <v>5</v>
       </c>
       <c r="E162">
-        <v>5.3734551316496511E-4</v>
+        <v>0.12672383176427401</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>9</v>
       </c>
       <c r="C163">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D163">
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1.6120365394948953E-2</v>
+        <v>7.2943893582490593E-2</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,13 +3135,13 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D164">
         <v>11</v>
       </c>
       <c r="E164">
-        <v>9.2244313093319E-2</v>
+        <v>0.13947704798733832</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,13 +3152,13 @@
         <v>9</v>
       </c>
       <c r="C165">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D165">
         <v>14</v>
       </c>
       <c r="E165">
-        <v>5.0868708579616694E-2</v>
+        <v>0.19534250687193519</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3169,13 +3169,13 @@
         <v>9</v>
       </c>
       <c r="C166">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D166">
         <v>17</v>
       </c>
       <c r="E166">
-        <v>3.8509761776822499E-2</v>
+        <v>7.7884773798948648E-2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,13 +3186,13 @@
         <v>9</v>
       </c>
       <c r="C167">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D167">
         <v>20</v>
       </c>
       <c r="E167">
-        <v>9.8692459251298589E-2</v>
+        <v>8.1239889233718526E-2</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,13 +3203,13 @@
         <v>9</v>
       </c>
       <c r="C168">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D168">
         <v>23</v>
       </c>
       <c r="E168">
-        <v>4.1017374171592333E-2</v>
+        <v>0.12471008937810661</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -3220,13 +3220,13 @@
         <v>9</v>
       </c>
       <c r="C169">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D169">
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0.14132186996238583</v>
+        <v>8.1218829932624761E-2</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3237,13 +3237,13 @@
         <v>9</v>
       </c>
       <c r="C170">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="E170">
-        <v>0.35285688697832707</v>
+        <v>8.0797461533398535E-2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,13 +3254,13 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D171">
         <v>8</v>
       </c>
       <c r="E171">
-        <v>0.56063048540211358</v>
+        <v>0.15616341686495855</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,13 +3271,13 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D172">
         <v>11</v>
       </c>
       <c r="E172">
-        <v>0.11391724879097259</v>
+        <v>0.32014859343791158</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3288,13 +3288,13 @@
         <v>9</v>
       </c>
       <c r="C173">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D173">
         <v>14</v>
       </c>
       <c r="E173">
-        <v>0.24180548092423429</v>
+        <v>0.2395548961442531</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,13 +3305,13 @@
         <v>9</v>
       </c>
       <c r="C174">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D174">
         <v>17</v>
       </c>
       <c r="E174">
-        <v>0.32151173204370409</v>
+        <v>6.9848201155193648E-2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,13 +3322,13 @@
         <v>9</v>
       </c>
       <c r="C175">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D175">
         <v>20</v>
       </c>
       <c r="E175">
-        <v>0.24699982088482894</v>
+        <v>9.4862830358041328E-2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,13 +3339,13 @@
         <v>9</v>
       </c>
       <c r="C176">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D176">
         <v>23</v>
       </c>
       <c r="E176">
-        <v>3.9584452803152426E-2</v>
+        <v>5.4035076707907706E-2</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3356,13 +3356,13 @@
         <v>9</v>
       </c>
       <c r="C177">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1.7911517105498836E-3</v>
+        <v>4.9809397411333788E-3</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3373,13 +3373,13 @@
         <v>9</v>
       </c>
       <c r="C178">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
       <c r="E178">
-        <v>4.8181981013791869E-2</v>
+        <v>5.2639712030140076E-3</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,13 +3390,13 @@
         <v>9</v>
       </c>
       <c r="C179">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179">
-        <v>0.12233566183055705</v>
+        <v>5.2938467467066059E-3</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3407,13 +3407,13 @@
         <v>9</v>
       </c>
       <c r="C180">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D180">
         <v>11</v>
       </c>
       <c r="E180">
-        <v>5.4809242342826435E-2</v>
+        <v>1.8993840953810927E-2</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3424,13 +3424,13 @@
         <v>9</v>
       </c>
       <c r="C181">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D181">
         <v>14</v>
       </c>
       <c r="E181">
-        <v>8.4184130395844534E-2</v>
+        <v>6.38611473914623E-2</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3441,13 +3441,13 @@
         <v>9</v>
       </c>
       <c r="C182">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D182">
         <v>17</v>
       </c>
       <c r="E182">
-        <v>7.558660218520509E-2</v>
+        <v>5.5914838586505521E-3</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,13 +3458,13 @@
         <v>9</v>
       </c>
       <c r="C183">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D183">
         <v>20</v>
       </c>
       <c r="E183">
-        <v>1.8807092960773777E-2</v>
+        <v>4.6479900157359493E-3</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3475,13 +3475,13 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D184">
         <v>23</v>
       </c>
       <c r="E184">
-        <v>3.582303421099767E-4</v>
+        <v>0.66552138957710161</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3492,13 +3492,13 @@
         <v>9</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D185">
         <v>2</v>
       </c>
       <c r="E185">
-        <v>8.9557585527494181E-4</v>
+        <v>3.957193915285475E-2</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3509,13 +3509,13 @@
         <v>9</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D186">
         <v>5</v>
       </c>
       <c r="E186">
-        <v>1.7015941250223893E-2</v>
+        <v>0.85119428115238438</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,13 +3526,13 @@
         <v>9</v>
       </c>
       <c r="C187">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D187">
         <v>8</v>
       </c>
       <c r="E187">
-        <v>8.5975282106394418E-3</v>
+        <v>0.94157627035739133</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,13 +3543,13 @@
         <v>9</v>
       </c>
       <c r="C188">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D188">
         <v>11</v>
       </c>
       <c r="E188">
-        <v>2.61508149740283E-2</v>
+        <v>0.94222286466272853</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3560,13 +3560,13 @@
         <v>9</v>
       </c>
       <c r="C189">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D189">
         <v>14</v>
       </c>
       <c r="E189">
-        <v>4.9077556869066813E-2</v>
+        <v>0.88899432434597248</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,13 +3577,13 @@
         <v>9</v>
       </c>
       <c r="C190">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D190">
         <v>17</v>
       </c>
       <c r="E190">
-        <v>8.5975282106394418E-3</v>
+        <v>0.99172605560211913</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,13 +3594,13 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D191">
         <v>20</v>
       </c>
       <c r="E191">
-        <v>3.582303421099767E-4</v>
+        <v>0.89601550715000189</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,13 +3611,13 @@
         <v>9</v>
       </c>
       <c r="C192">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D192">
         <v>23</v>
       </c>
       <c r="E192">
-        <v>1.7911517105498835E-4</v>
+        <v>0.86548944966134567</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3628,13 +3628,13 @@
         <v>9</v>
       </c>
       <c r="C193">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D193">
         <v>2</v>
       </c>
       <c r="E193">
-        <v>7.7019523553644997E-3</v>
+        <v>0.34414720731237991</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,13 +3645,13 @@
         <v>9</v>
       </c>
       <c r="C194">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D194">
         <v>5</v>
       </c>
       <c r="E194">
-        <v>7.7019523553644997E-3</v>
+        <v>0.40933695217140886</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3662,13 +3662,13 @@
         <v>9</v>
       </c>
       <c r="C195">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D195">
         <v>8</v>
       </c>
       <c r="E195">
-        <v>3.582303421099767E-4</v>
+        <v>0.53116268229439734</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,13 +3679,13 @@
         <v>9</v>
       </c>
       <c r="C196">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D196">
         <v>11</v>
       </c>
       <c r="E196">
-        <v>2.3105857066093499E-2</v>
+        <v>0.80901812107306648</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,13 +3696,13 @@
         <v>9</v>
       </c>
       <c r="C197">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D197">
         <v>14</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.12872506070075554</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,13 +3713,13 @@
         <v>9</v>
       </c>
       <c r="C198">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D198">
         <v>17</v>
       </c>
       <c r="E198">
-        <v>1.7911517105498835E-4</v>
+        <v>0.10267043421152665</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,13 +3730,13 @@
         <v>9</v>
       </c>
       <c r="C199">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D199">
         <v>20</v>
       </c>
       <c r="E199">
-        <v>5.3734551316496511E-4</v>
+        <v>0.10326867075142616</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -3747,13 +3747,13 @@
         <v>9</v>
       </c>
       <c r="C200">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D200">
         <v>23</v>
       </c>
       <c r="E200">
-        <v>1.2538061973849184E-3</v>
+        <v>8.14210086726469E-2</v>
       </c>
     </row>
   </sheetData>
